--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520339.95507205</v>
+        <v>3519821.661789281</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2098510.838922387</v>
+        <v>2098510.838922389</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839054.1707993046</v>
+        <v>839054.1707993039</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -715,19 +715,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>206.7088079079534</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>99.47703247612078</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>27.69379900215334</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>20.90530960114147</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>228.7314423684853</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -955,10 +955,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>296.9793995009531</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>152.748249201703</v>
       </c>
       <c r="F7" t="n">
-        <v>78.39562238380266</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>333.8494616365059</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>16.29149488057059</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>63.60381974109103</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>81.53228899306457</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>292.8332363148439</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>81.61838887131765</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497638</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>46.63143556246842</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>216.3702966523163</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -1912,7 +1912,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2089,19 +2089,19 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412922</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2149,7 +2149,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2307,7 +2307,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541635</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
         <v>208.3257718879323</v>
@@ -2563,7 +2563,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>75.29623401250809</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2575,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2623,7 +2623,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>256.3629479318222</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662009</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530676</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>139.3134140338116</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>273.0782865404625</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943208</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662018</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
@@ -3037,7 +3037,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F32" t="n">
         <v>282.3655247697376</v>
@@ -3049,7 +3049,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875427</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277607</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541626</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W32" t="n">
         <v>236.929075365811</v>
@@ -3097,7 +3097,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E34" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G34" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V34" t="n">
         <v>132.9595824117996</v>
@@ -3255,7 +3255,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3274,7 +3274,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3286,7 +3286,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875413</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541626</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3334,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3492,7 +3492,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3517,13 +3517,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412929</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875427</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879324</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3723,13 +3723,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>323.752408571747</v>
       </c>
       <c r="C41" t="n">
-        <v>316.5063567995628</v>
+        <v>108.1526698328254</v>
       </c>
       <c r="D41" t="n">
         <v>308.849327812963</v>
       </c>
       <c r="E41" t="n">
-        <v>325.820299952085</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>339.9881044027861</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>336.2937382743409</v>
       </c>
       <c r="H41" t="n">
         <v>248.1048302466383</v>
       </c>
       <c r="I41" t="n">
-        <v>64.2163560559239</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.11102982582402</v>
+        <v>92.11102982582401</v>
       </c>
       <c r="T41" t="n">
         <v>148.5282067336416</v>
@@ -3799,7 +3799,7 @@
         <v>180.4578125872114</v>
       </c>
       <c r="V41" t="n">
-        <v>57.69180760566297</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>294.5516549988595</v>
@@ -3808,7 +3808,7 @@
         <v>312.8206893337378</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>319.7884123060689</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.71981035083996</v>
+        <v>110.6185488218523</v>
       </c>
       <c r="C43" t="n">
-        <v>95.76567707213475</v>
+        <v>42.43628127130113</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>81.26583433685359</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.01528575662086</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.83412367901299</v>
+        <v>93.83412367901298</v>
       </c>
       <c r="H43" t="n">
-        <v>81.18637584558503</v>
+        <v>81.18637584558502</v>
       </c>
       <c r="I43" t="n">
-        <v>59.02609142675696</v>
+        <v>59.02609142675695</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.92458979121288</v>
+        <v>49.92458979121287</v>
       </c>
       <c r="S43" t="n">
         <v>128.0505332967402</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.6244716309123</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>209.8470141579821</v>
       </c>
       <c r="V43" t="n">
         <v>190.5821620448481</v>
       </c>
       <c r="W43" t="n">
-        <v>207.7597083655982</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>159.0021293123108</v>
@@ -3985,13 +3985,13 @@
         <v>308.849327812963</v>
       </c>
       <c r="E44" t="n">
-        <v>92.32699872955773</v>
+        <v>325.820299952085</v>
       </c>
       <c r="F44" t="n">
         <v>339.9881044027861</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>86.2951110835423</v>
       </c>
       <c r="H44" t="n">
         <v>248.1048302466383</v>
@@ -4045,7 +4045,7 @@
         <v>312.8206893337378</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.7884123060689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.6185488218523</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>95.76567707213475</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>81.33939228397448</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.83412367901299</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>59.02609142675696</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>49.92458979121288</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3402737310167</v>
+        <v>85.76092792806493</v>
       </c>
       <c r="T46" t="n">
         <v>160.6244716309123</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>209.8470141579821</v>
       </c>
       <c r="V46" t="n">
         <v>190.5821620448481</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>986.2431031906915</v>
+        <v>847.9059862831563</v>
       </c>
       <c r="C2" t="n">
-        <v>593.067601693622</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D2" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E2" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F2" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O2" t="n">
         <v>1832.61545280471</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U2" t="n">
-        <v>1937.641433863169</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V2" t="n">
-        <v>1595.534624566688</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.534624566688</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.737848902088</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.737848902088</v>
+        <v>1248.400731994553</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D4" t="n">
-        <v>691.9244664667428</v>
+        <v>358.3503332808472</v>
       </c>
       <c r="E4" t="n">
-        <v>536.3656543259453</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F4" t="n">
-        <v>379.0397195389182</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7856656383638</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>927.6435182985088</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y4" t="n">
-        <v>691.9244664667428</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.791788362471</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="C5" t="n">
-        <v>935.7499273842031</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="D5" t="n">
-        <v>935.7499273842031</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="E5" t="n">
-        <v>935.7499273842031</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4570,49 +4570,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>450.3285375450872</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>943.648829263616</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1489.649729308197</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>2017.461012945658</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U5" t="n">
-        <v>1905.389306738351</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V5" t="n">
-        <v>1563.28249744187</v>
+        <v>1643.403029037725</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.28249744187</v>
+        <v>1272.403994006013</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.28249744187</v>
+        <v>1272.403994006013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1166.791788362471</v>
+        <v>875.9132849266141</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N6" t="n">
         <v>1209.141762214911</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.8787376328181</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="C7" t="n">
-        <v>156.8787376328181</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="D7" t="n">
-        <v>156.8787376328181</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="E7" t="n">
-        <v>156.8787376328181</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H7" t="n">
         <v>77.69124027544166</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V7" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W7" t="n">
-        <v>379.9907988161747</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X7" t="n">
-        <v>379.9907988161747</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.8787376328181</v>
+        <v>713.0409408113302</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1599.216339903448</v>
+        <v>1997.166148005181</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.994661482735</v>
+        <v>1603.990646508112</v>
       </c>
       <c r="D8" t="n">
-        <v>876.5535326994022</v>
+        <v>1218.54951772478</v>
       </c>
       <c r="E8" t="n">
-        <v>473.9700078159467</v>
+        <v>1202.09346228986</v>
       </c>
       <c r="F8" t="n">
-        <v>461.1159733863285</v>
+        <v>785.1990238198377</v>
       </c>
       <c r="G8" t="n">
-        <v>47.95321787433164</v>
+        <v>372.0362683078409</v>
       </c>
       <c r="H8" t="n">
-        <v>47.95321787433164</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="I8" t="n">
-        <v>47.95321787433164</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="J8" t="n">
-        <v>47.95321787433164</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="K8" t="n">
-        <v>47.95321787433164</v>
+        <v>406.9355739017934</v>
       </c>
       <c r="L8" t="n">
-        <v>541.2735095928605</v>
+        <v>900.2558656203223</v>
       </c>
       <c r="M8" t="n">
-        <v>1087.274409637441</v>
+        <v>1446.256765664903</v>
       </c>
       <c r="N8" t="n">
-        <v>1424.588240551783</v>
+        <v>1609.433800692728</v>
       </c>
       <c r="O8" t="n">
-        <v>1864.627841444111</v>
+        <v>2049.473401585056</v>
       </c>
       <c r="P8" t="n">
-        <v>2212.815333575633</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="Q8" t="n">
-        <v>2397.660893716582</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="R8" t="n">
-        <v>2359.667980002103</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="S8" t="n">
-        <v>2359.667980002103</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="T8" t="n">
-        <v>2359.667980002103</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="U8" t="n">
-        <v>2359.667980002103</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="V8" t="n">
-        <v>2359.667980002103</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="W8" t="n">
-        <v>1988.668944970391</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.216339903448</v>
+        <v>2397.660893716578</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.216339903448</v>
+        <v>2397.660893716578</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>878.6913418809766</v>
+        <v>847.3192010143625</v>
       </c>
       <c r="C9" t="n">
-        <v>728.0371114410688</v>
+        <v>696.6649705744547</v>
       </c>
       <c r="D9" t="n">
-        <v>597.9481440625491</v>
+        <v>566.5760031959351</v>
       </c>
       <c r="E9" t="n">
-        <v>461.5016531734368</v>
+        <v>430.1295123068228</v>
       </c>
       <c r="F9" t="n">
-        <v>337.0698470565686</v>
+        <v>305.6977061899546</v>
       </c>
       <c r="G9" t="n">
-        <v>217.0100291284331</v>
+        <v>185.6378882618191</v>
       </c>
       <c r="H9" t="n">
-        <v>128.712612729034</v>
+        <v>97.34047186241997</v>
       </c>
       <c r="I9" t="n">
-        <v>79.32535874094557</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="J9" t="n">
-        <v>79.32535874094557</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="K9" t="n">
-        <v>79.32535874094557</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="L9" t="n">
-        <v>562.8914446392588</v>
+        <v>531.5193037726448</v>
       </c>
       <c r="M9" t="n">
-        <v>1156.312515834113</v>
+        <v>616.360938792845</v>
       </c>
       <c r="N9" t="n">
-        <v>1749.733587028967</v>
+        <v>1209.782009987698</v>
       </c>
       <c r="O9" t="n">
-        <v>2266.253869619948</v>
+        <v>1726.302292578679</v>
       </c>
       <c r="P9" t="n">
-        <v>2266.253869619948</v>
+        <v>2131.923661295077</v>
       </c>
       <c r="Q9" t="n">
-        <v>2397.660893716582</v>
+        <v>2366.288752849967</v>
       </c>
       <c r="R9" t="n">
-        <v>2373.743850614646</v>
+        <v>2342.371709748032</v>
       </c>
       <c r="S9" t="n">
-        <v>2238.813173514515</v>
+        <v>2207.441032647901</v>
       </c>
       <c r="T9" t="n">
-        <v>2061.829361713423</v>
+        <v>2030.457220846809</v>
       </c>
       <c r="U9" t="n">
-        <v>1851.766218392065</v>
+        <v>1820.394077525451</v>
       </c>
       <c r="V9" t="n">
-        <v>1629.226216763132</v>
+        <v>1597.854075896518</v>
       </c>
       <c r="W9" t="n">
-        <v>1399.108970896419</v>
+        <v>1367.736830029805</v>
       </c>
       <c r="X9" t="n">
-        <v>1209.801893246431</v>
+        <v>1178.429752379817</v>
       </c>
       <c r="Y9" t="n">
-        <v>1030.487676321938</v>
+        <v>999.1155354553239</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>449.3405730196913</v>
+        <v>885.1539578491254</v>
       </c>
       <c r="C10" t="n">
-        <v>449.3405730196913</v>
+        <v>714.9488399151146</v>
       </c>
       <c r="D10" t="n">
-        <v>449.3405730196913</v>
+        <v>714.9488399151146</v>
       </c>
       <c r="E10" t="n">
-        <v>293.7817608788938</v>
+        <v>559.3900277743171</v>
       </c>
       <c r="F10" t="n">
-        <v>211.4259134111518</v>
+        <v>402.0640929872901</v>
       </c>
       <c r="G10" t="n">
-        <v>211.4259134111518</v>
+        <v>233.8100390867357</v>
       </c>
       <c r="H10" t="n">
-        <v>211.4259134111518</v>
+        <v>78.33148804822963</v>
       </c>
       <c r="I10" t="n">
-        <v>78.33148804822969</v>
+        <v>78.33148804822963</v>
       </c>
       <c r="J10" t="n">
-        <v>47.95321787433164</v>
+        <v>47.95321787433157</v>
       </c>
       <c r="K10" t="n">
         <v>129.7882589842735</v>
       </c>
       <c r="L10" t="n">
-        <v>293.9158988580733</v>
+        <v>293.9158988580732</v>
       </c>
       <c r="M10" t="n">
-        <v>480.2074771963373</v>
+        <v>480.2074771963372</v>
       </c>
       <c r="N10" t="n">
         <v>663.3971112275465</v>
@@ -4998,16 +4998,16 @@
         <v>949.400240415884</v>
       </c>
       <c r="V10" t="n">
-        <v>683.4208952367082</v>
+        <v>949.400240415884</v>
       </c>
       <c r="W10" t="n">
-        <v>683.4208952367082</v>
+        <v>949.400240415884</v>
       </c>
       <c r="X10" t="n">
-        <v>449.3405730196913</v>
+        <v>949.400240415884</v>
       </c>
       <c r="Y10" t="n">
-        <v>449.3405730196913</v>
+        <v>949.400240415884</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1596.229397996941</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C11" t="n">
         <v>1300.438250204169</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>3023.513568164041</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2776.347440154748</v>
       </c>
       <c r="W11" t="n">
-        <v>2497.845413993115</v>
+        <v>2500.289086410224</v>
       </c>
       <c r="X11" t="n">
-        <v>2203.33349021336</v>
+        <v>2205.777162630469</v>
       </c>
       <c r="Y11" t="n">
-        <v>1901.783462421149</v>
+        <v>1904.227134838259</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5199,34 +5199,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5238,13 +5238,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1728.149220539922</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.914400330041</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1139.413952833897</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="E14" t="n">
-        <v>831.7711092376303</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>509.8173520547964</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5311,19 +5311,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2905.82359028062</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2629.765236536096</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2335.253312756342</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.703284964131</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C15" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D15" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.359996292367</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>1590.92608219068</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1590.92608219068</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>2246.704053401239</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>2763.22433599222</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>3105.956385205776</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R15" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S15" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T15" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U15" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V15" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W15" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X15" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y15" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5436,7 +5436,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5445,43 +5445,43 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
@@ -5521,7 +5521,7 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
@@ -5542,7 +5542,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5597,22 +5597,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5673,28 +5673,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229882</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222407</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343045</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5737,19 +5737,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J20" t="n">
         <v>206.768900612944</v>
@@ -5837,19 +5837,19 @@
         <v>62.11912770411552</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411552</v>
@@ -5916,46 +5916,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750514</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133154</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445246</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862326</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162811</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
         <v>261.185821680343</v>
@@ -6016,7 +6016,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T23" t="n">
         <v>2979.29570107106</v>
@@ -6028,7 +6028,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840155</v>
@@ -6074,10 +6074,10 @@
         <v>62.11912770411552</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6147,22 +6147,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
         <v>1087.158956162811</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.211875180718</v>
+        <v>1596.22939799694</v>
       </c>
       <c r="C26" t="n">
-        <v>1572.977054970837</v>
+        <v>1297.994577787059</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.476607474693</v>
+        <v>1007.494130290915</v>
       </c>
       <c r="E26" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955919</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6244,7 +6244,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q26" t="n">
         <v>3105.956385205776</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>2730.230336043088</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W26" t="n">
-        <v>2730.230336043088</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="X26" t="n">
-        <v>2435.718412263333</v>
+        <v>2203.33349021336</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.765939604927</v>
+        <v>1901.783462421149</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M27" t="n">
         <v>802.5350401618138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.83745067606</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029238</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.880582218941</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365331</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865493</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252126</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500808</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425074</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.14983055721</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396725</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000098</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828718</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106151</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050701</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.844193579791</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687804</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.41580890617</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.276167976341</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080173</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1391.743918024176</v>
+        <v>1552.55596630239</v>
       </c>
       <c r="C29" t="n">
-        <v>1251.023297788003</v>
+        <v>1254.321146092509</v>
       </c>
       <c r="D29" t="n">
-        <v>960.522850291859</v>
+        <v>963.8206985963653</v>
       </c>
       <c r="E29" t="n">
-        <v>652.8800066955919</v>
+        <v>656.1778550000982</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K29" t="n">
         <v>565.7512566404055</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6496,19 +6496,19 @@
         <v>2977.396464052381</v>
       </c>
       <c r="U29" t="n">
-        <v>2816.584415774168</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="V29" t="n">
-        <v>2569.418287764875</v>
+        <v>2730.230336043088</v>
       </c>
       <c r="W29" t="n">
-        <v>2293.35993402035</v>
+        <v>2454.171982298564</v>
       </c>
       <c r="X29" t="n">
-        <v>1998.848010240596</v>
+        <v>2159.660058518809</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.297982448385</v>
+        <v>1858.110030726599</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
         <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6600,10 +6600,10 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
         <v>296.5093676443718</v>
@@ -6618,10 +6618,10 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
@@ -6633,7 +6633,7 @@
         <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O31" t="n">
         <v>1368.802215879041</v>
@@ -6660,10 +6660,10 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y31" t="n">
         <v>583.3517043592133</v>
@@ -6691,19 +6691,19 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6733,16 +6733,16 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6776,28 +6776,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2243.686201918055</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C34" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D34" t="n">
-        <v>2181.201444251376</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E34" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F34" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G34" t="n">
-        <v>2095.092853470223</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H34" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I34" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2151.708391543553</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2315.836031417353</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M34" t="n">
-        <v>2502.127609755617</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N34" t="n">
-        <v>2685.317243786826</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O34" t="n">
-        <v>2848.022010828534</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P34" t="n">
-        <v>3096.954546227541</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S34" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T34" t="n">
-        <v>2930.774722921376</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U34" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V34" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W34" t="n">
-        <v>2491.056393962504</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X34" t="n">
-        <v>2388.652808427896</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y34" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="35">
@@ -6922,7 +6922,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
@@ -6931,16 +6931,16 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6967,7 +6967,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
@@ -7013,19 +7013,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>803.0057595505241</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>969.324157721467</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7204,13 +7204,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7219,7 +7219,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7259,19 +7259,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,52 +7308,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7362,22 +7362,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1681.801223936397</v>
+        <v>1417.057178784473</v>
       </c>
       <c r="C41" t="n">
-        <v>1362.097833229768</v>
+        <v>1307.812057741215</v>
       </c>
       <c r="D41" t="n">
-        <v>1050.128815236876</v>
+        <v>995.843039748323</v>
       </c>
       <c r="E41" t="n">
-        <v>721.0174011438612</v>
+        <v>995.843039748323</v>
       </c>
       <c r="F41" t="n">
-        <v>377.5950734642794</v>
+        <v>652.4207120687411</v>
       </c>
       <c r="G41" t="n">
-        <v>377.5950734642794</v>
+        <v>312.7300673471846</v>
       </c>
       <c r="H41" t="n">
-        <v>126.9841338212104</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403515</v>
@@ -7429,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7441,22 +7441,22 @@
         <v>3012.914940937267</v>
       </c>
       <c r="T41" t="n">
-        <v>2862.886449287123</v>
+        <v>2862.886449287124</v>
       </c>
       <c r="U41" t="n">
-        <v>2680.605830512162</v>
+        <v>2680.605830512163</v>
       </c>
       <c r="V41" t="n">
-        <v>2622.331277375129</v>
+        <v>2680.605830512163</v>
       </c>
       <c r="W41" t="n">
-        <v>2324.804353133857</v>
+        <v>2383.078906270891</v>
       </c>
       <c r="X41" t="n">
-        <v>2008.823858857354</v>
+        <v>2067.098411994388</v>
       </c>
       <c r="Y41" t="n">
-        <v>2008.823858857354</v>
+        <v>1744.07981370543</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301394</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.359996292366</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>1590.926082190679</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>2183.814733898398</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>2183.814733898398</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.2033581252914</v>
+        <v>341.394756211849</v>
       </c>
       <c r="C43" t="n">
-        <v>464.470350981721</v>
+        <v>298.5298256347771</v>
       </c>
       <c r="D43" t="n">
-        <v>464.470350981721</v>
+        <v>298.5298256347771</v>
       </c>
       <c r="E43" t="n">
-        <v>382.3836496313638</v>
+        <v>298.5298256347771</v>
       </c>
       <c r="F43" t="n">
         <v>298.5298256347771</v>
@@ -7566,7 +7566,7 @@
         <v>121.7414422765973</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
         <v>104.3554008923886</v>
@@ -7587,34 +7587,34 @@
         <v>1242.554140215864</v>
       </c>
       <c r="P43" t="n">
-        <v>1434.440321778153</v>
+        <v>1434.440321778154</v>
       </c>
       <c r="Q43" t="n">
         <v>1509.872533933915</v>
       </c>
       <c r="R43" t="n">
-        <v>1459.443655356932</v>
+        <v>1459.443655356933</v>
       </c>
       <c r="S43" t="n">
         <v>1330.099682329922</v>
       </c>
       <c r="T43" t="n">
-        <v>1330.099682329922</v>
+        <v>1167.852741288597</v>
       </c>
       <c r="U43" t="n">
-        <v>1330.099682329922</v>
+        <v>955.8860603209382</v>
       </c>
       <c r="V43" t="n">
-        <v>1137.592447941186</v>
+        <v>763.3788259322027</v>
       </c>
       <c r="W43" t="n">
-        <v>927.7341566628045</v>
+        <v>763.3788259322027</v>
       </c>
       <c r="X43" t="n">
-        <v>767.1259452362279</v>
+        <v>602.7706145056262</v>
       </c>
       <c r="Y43" t="n">
-        <v>617.4859948433116</v>
+        <v>453.1306641127099</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1445.949404519703</v>
+        <v>1768.968002808662</v>
       </c>
       <c r="C44" t="n">
-        <v>1126.246013813074</v>
+        <v>1449.264612102033</v>
       </c>
       <c r="D44" t="n">
-        <v>814.2769958201822</v>
+        <v>1137.295594109141</v>
       </c>
       <c r="E44" t="n">
-        <v>721.0174011438612</v>
+        <v>808.1841800161262</v>
       </c>
       <c r="F44" t="n">
-        <v>377.5950734642794</v>
+        <v>464.7618523365443</v>
       </c>
       <c r="G44" t="n">
         <v>377.5950734642794</v>
@@ -7645,7 +7645,7 @@
         <v>126.9841338212104</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7666,7 +7666,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7678,10 +7678,10 @@
         <v>3012.914940937267</v>
       </c>
       <c r="T44" t="n">
-        <v>2862.886449287123</v>
+        <v>2862.886449287124</v>
       </c>
       <c r="U44" t="n">
-        <v>2680.605830512162</v>
+        <v>2680.605830512163</v>
       </c>
       <c r="V44" t="n">
         <v>2411.971132006121</v>
@@ -7690,10 +7690,10 @@
         <v>2411.971132006121</v>
       </c>
       <c r="X44" t="n">
-        <v>2095.990637729618</v>
+        <v>2095.990637729619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1772.97203944066</v>
+        <v>2095.990637729619</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>417.8817816152023</v>
+        <v>285.9891459339994</v>
       </c>
       <c r="C46" t="n">
-        <v>321.1487744716318</v>
+        <v>285.9891459339994</v>
       </c>
       <c r="D46" t="n">
-        <v>238.9877721645868</v>
+        <v>203.8281436269545</v>
       </c>
       <c r="E46" t="n">
-        <v>156.9010708142297</v>
+        <v>121.7414422765973</v>
       </c>
       <c r="F46" t="n">
-        <v>156.9010708142297</v>
+        <v>121.7414422765973</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411552</v>
+        <v>121.7414422765973</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411552</v>
+        <v>121.7414422765973</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
         <v>104.3554008923886</v>
@@ -7830,28 +7830,28 @@
         <v>1509.872533933915</v>
       </c>
       <c r="R46" t="n">
-        <v>1509.872533933915</v>
+        <v>1459.443655356932</v>
       </c>
       <c r="S46" t="n">
-        <v>1404.478318043999</v>
+        <v>1372.816455429594</v>
       </c>
       <c r="T46" t="n">
-        <v>1242.231377002674</v>
+        <v>1210.569514388269</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.231377002674</v>
+        <v>998.6028334206097</v>
       </c>
       <c r="V46" t="n">
-        <v>1049.724142613938</v>
+        <v>806.0955990318743</v>
       </c>
       <c r="W46" t="n">
-        <v>839.8658513355562</v>
+        <v>596.2373077534922</v>
       </c>
       <c r="X46" t="n">
-        <v>679.2576399089796</v>
+        <v>435.6290963269157</v>
       </c>
       <c r="Y46" t="n">
-        <v>529.6176895160633</v>
+        <v>285.9891459339994</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>458.1505014870046</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>359.5215849845346</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>447.5171231095482</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>404.0339532143034</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,16 +8227,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>312.0396197609155</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5394322581657</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8455,7 +8455,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8464,7 +8464,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>489.8395326654017</v>
+        <v>313.9437792446778</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>691.8023454784573</v>
+        <v>178.0857432818374</v>
       </c>
       <c r="N9" t="n">
-        <v>684.787336283312</v>
+        <v>684.7873362833112</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>223.7225209302917</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8777,10 +8777,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>433.2773539239171</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,13 +9245,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9485,10 +9485,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9722,13 +9722,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9956,13 +9956,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>514.986373519011</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -10199,7 +10199,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10208,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,16 +10667,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>510.5662141339224</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10907,13 +10907,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>237.5738335035115</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>691.2645480167043</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11308,7 +11308,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
@@ -11378,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11393,7 +11393,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.419235692938287</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>77.58553892411328</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>240.9640074587141</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>98.66955683024409</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>229.2701811477964</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.17157958246622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>155.9390579739706</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>45.65593307054303</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>208.3536869667373</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>325.820299952085</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>336.2937382743409</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>64.21635605592388</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>208.2565439153179</v>
+        <v>265.9483515209809</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.7884123060689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.89873847101238</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>53.32939580083361</v>
       </c>
       <c r="D43" t="n">
-        <v>81.33939228397448</v>
+        <v>81.33939228397446</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>81.26583433685357</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.01528575662084</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.6244716309123</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>209.8470141579821</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>207.7597083655982</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>233.4933012225272</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>336.2937382743409</v>
+        <v>249.9986271907986</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>319.7884123060689</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>110.6185488218523</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>95.76567707213475</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>83.01528575662086</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>93.83412367901299</v>
       </c>
       <c r="H46" t="n">
         <v>81.18637584558503</v>
       </c>
       <c r="I46" t="n">
-        <v>59.02609142675696</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.92458979121288</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>23.71025956572353</v>
+        <v>42.28960536867525</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>209.8470141579821</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>555227.885578519</v>
+        <v>555227.8855785191</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685262.2767547555</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="C2" t="n">
-        <v>685262.2767547556</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="D2" t="n">
-        <v>685262.2767547555</v>
+        <v>685262.2767547558</v>
       </c>
       <c r="E2" t="n">
-        <v>644009.2661963059</v>
+        <v>644009.2661963048</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963053</v>
+        <v>644009.266196305</v>
       </c>
       <c r="G2" t="n">
-        <v>685262.2767547559</v>
+        <v>685262.2767547551</v>
       </c>
       <c r="H2" t="n">
+        <v>685262.2767547561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>685262.2767547563</v>
+      </c>
+      <c r="J2" t="n">
+        <v>644009.2661963048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>644009.266196305</v>
+      </c>
+      <c r="L2" t="n">
         <v>685262.2767547552</v>
       </c>
-      <c r="I2" t="n">
-        <v>685262.276754756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>644009.2661963052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>644009.2661963054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>685262.2767547558</v>
-      </c>
       <c r="M2" t="n">
-        <v>685262.2767547558</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="N2" t="n">
-        <v>685262.2767547559</v>
+        <v>685262.2767547563</v>
       </c>
       <c r="O2" t="n">
-        <v>608348.0054197876</v>
+        <v>608348.005419788</v>
       </c>
       <c r="P2" t="n">
-        <v>608348.0054197876</v>
+        <v>608348.0054197878</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2486.002070764308</v>
+        <v>2486.002070764056</v>
       </c>
       <c r="E3" t="n">
-        <v>128063.3823939184</v>
+        <v>128063.3823939186</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>60215.42360931239</v>
+        <v>60215.42360931223</v>
       </c>
       <c r="M3" t="n">
-        <v>44127.51741526835</v>
+        <v>44127.51741526852</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165792.0503172815</v>
       </c>
       <c r="D4" t="n">
-        <v>164447.8161492849</v>
+        <v>164447.8161492851</v>
       </c>
       <c r="E4" t="n">
         <v>110143.3843639945</v>
@@ -26432,13 +26432,13 @@
         <v>110143.3843639945</v>
       </c>
       <c r="G4" t="n">
+        <v>134747.7050074764</v>
+      </c>
+      <c r="H4" t="n">
+        <v>134747.7050074764</v>
+      </c>
+      <c r="I4" t="n">
         <v>134747.7050074765</v>
-      </c>
-      <c r="H4" t="n">
-        <v>134747.7050074765</v>
-      </c>
-      <c r="I4" t="n">
-        <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
         <v>110143.3843639945</v>
@@ -26447,7 +26447,7 @@
         <v>110143.3843639945</v>
       </c>
       <c r="L4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074765</v>
@@ -26459,7 +26459,7 @@
         <v>88665.36197446474</v>
       </c>
       <c r="P4" t="n">
-        <v>88665.36197446474</v>
+        <v>88665.36197446476</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>70072.04558449204</v>
+        <v>70072.04558449198</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26499,19 +26499,19 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53325.4966683489</v>
+        <v>53325.49666834891</v>
       </c>
       <c r="P5" t="n">
-        <v>53325.4966683489</v>
+        <v>53325.49666834891</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251688.9631685559</v>
+        <v>251688.9631685561</v>
       </c>
       <c r="C6" t="n">
-        <v>449884.769160301</v>
+        <v>449884.7691603012</v>
       </c>
       <c r="D6" t="n">
-        <v>448256.4129502142</v>
+        <v>448256.4129502146</v>
       </c>
       <c r="E6" t="n">
-        <v>350690.2099294839</v>
+        <v>350581.6493753815</v>
       </c>
       <c r="F6" t="n">
-        <v>478753.5923234017</v>
+        <v>478645.0317693003</v>
       </c>
       <c r="G6" t="n">
-        <v>463249.8465587454</v>
+        <v>463249.8465587446</v>
       </c>
       <c r="H6" t="n">
-        <v>492344.802431759</v>
+        <v>492344.8024317601</v>
       </c>
       <c r="I6" t="n">
-        <v>492344.8024317599</v>
+        <v>492344.8024317602</v>
       </c>
       <c r="J6" t="n">
-        <v>277916.0942513593</v>
+        <v>277807.5336972578</v>
       </c>
       <c r="K6" t="n">
-        <v>478753.5923234018</v>
+        <v>478645.0317693003</v>
       </c>
       <c r="L6" t="n">
-        <v>432129.3788224473</v>
+        <v>432129.3788224467</v>
       </c>
       <c r="M6" t="n">
-        <v>448217.2850164913</v>
+        <v>448217.2850164915</v>
       </c>
       <c r="N6" t="n">
-        <v>492344.8024317598</v>
+        <v>492344.8024317603</v>
       </c>
       <c r="O6" t="n">
-        <v>466357.146776974</v>
+        <v>466154.740799777</v>
       </c>
       <c r="P6" t="n">
-        <v>466357.146776974</v>
+        <v>466154.7407997769</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26712,7 +26712,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,7 +26724,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="P2" t="n">
         <v>72.73738968253592</v>
@@ -26795,7 +26795,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>599.4152234291454</v>
+        <v>599.4152234291446</v>
       </c>
       <c r="E4" t="n">
         <v>776.4890963014441</v>
@@ -26813,25 +26813,25 @@
         <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304849</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253589</v>
+        <v>72.73738968253595</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.003097159850331</v>
+        <v>8.003097159849517</v>
       </c>
       <c r="E4" t="n">
-        <v>177.0738728722987</v>
+        <v>177.0738728722995</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692953</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159850313</v>
+        <v>8.003097159849517</v>
       </c>
       <c r="M4" t="n">
-        <v>177.0738728722987</v>
+        <v>177.0738728722995</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304849</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159850331</v>
+        <v>8.003097159849517</v>
       </c>
       <c r="M4" t="n">
-        <v>177.0738728722987</v>
+        <v>177.0738728722995</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>178.8492711083203</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>293.0487695124841</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>126.3829829643571</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8826133781346</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>160.5123041136134</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>41.70634170256363</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27782,16 +27782,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>1.254974817686531</v>
       </c>
       <c r="F7" t="n">
-        <v>77.35705305535411</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27827,22 +27827,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>55.39428484559278</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>382.2661947540503</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27915,10 +27915,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>119.7521187632972</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>74.22038644609221</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431675</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431611</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28745,7 +28745,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668765</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28757,19 +28757,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>28.01250026485198</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>128.297982108277</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29000,13 +29000,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29219,7 +29219,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.01250026485152</v>
+        <v>128.2979821082769</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29948,13 +29948,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.636002634528776</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30167,7 +30167,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30182,16 +30182,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.01250026485148</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.636002634528481</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30404,31 +30404,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634528545</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="C41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="D41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="E41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="F41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="G41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="H41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="I41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="T41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="U41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="V41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="W41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="X41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="C43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="D43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="E43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="F43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="G43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="H43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="I43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="J43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="K43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="L43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="M43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="N43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="O43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="P43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="R43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="S43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="T43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="U43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="V43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="W43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="X43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253593</v>
       </c>
     </row>
     <row r="44">
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>309.0320101492205</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>260.9755500350661</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,16 +34947,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>582.1523102088538</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35184,7 +35184,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>340.7210413276176</v>
+        <v>164.8252879068937</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>599.4152234291454</v>
+        <v>85.69862123252547</v>
       </c>
       <c r="N9" t="n">
-        <v>599.4152234291454</v>
+        <v>599.4152234291446</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>132.7343677743777</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>346.1939891046024</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271087</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.4480384844686</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35980,10 +35980,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528578</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36053,10 +36053,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019308</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36065,7 +36065,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36220,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>294.083476930297</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36296,13 +36296,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835636</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36533,7 +36533,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>149.0995364028097</v>
+        <v>249.3850182462351</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36919,7 +36919,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36928,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37244,13 +37244,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.092766644681259</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1941012797557</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37478,16 +37478,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500396</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>145.1867114541996</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37718,13 +37718,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37867,10 +37867,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>598.8774259673925</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.66290221037685</v>
+        <v>42.66290221037686</v>
       </c>
       <c r="K43" t="n">
         <v>155.3990473693459</v>
@@ -37958,7 +37958,7 @@
         <v>193.8244258204941</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.1941536926884</v>
+        <v>76.19415369268842</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.05004611020361</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38113,7 +38113,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
